--- a/Documentación/PREGAME/1. ELICITACION/1.3 Historias Usuario/G2_Basantes_Orellana_Lopez_PT1_Matriz_v1.4.xlsx
+++ b/Documentación/PREGAME/1. ELICITACION/1.3 Historias Usuario/G2_Basantes_Orellana_Lopez_PT1_Matriz_v1.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\A y D\7185_G2\Documentación\PREGAME\1. ELICITACION\1.3 Historias Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35243D19-7907-4751-9F60-211021CA4174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56006DB3-BA37-4096-BD91-5FA9B03E0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t xml:space="preserve">4 hrs </t>
-  </si>
-  <si>
-    <t>17/01/2022</t>
   </si>
   <si>
     <t>19/01/2022</t>
@@ -1599,7 +1596,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1750,19 +1747,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>58</v>
@@ -1771,7 +1768,7 @@
         <v>162</v>
       </c>
       <c r="J6" s="40">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>22</v>
@@ -1783,10 +1780,10 @@
         <v>115</v>
       </c>
       <c r="N6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,19 +1791,19 @@
         <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="G7" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>58</v>
@@ -1815,7 +1812,7 @@
         <v>162</v>
       </c>
       <c r="J7" s="40">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>22</v>
@@ -1865,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>24</v>
@@ -1909,7 +1906,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>33</v>
@@ -1921,92 +1918,92 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>54</v>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>164</v>
+      <c r="J10" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>64</v>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>162</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>67</v>
+        <v>152</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2014,43 +2011,43 @@
         <v>68</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>162</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>126</v>
+      <c r="M12" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="69" x14ac:dyDescent="0.25">
@@ -2079,7 +2076,7 @@
         <v>162</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>22</v>
@@ -2123,7 +2120,7 @@
         <v>162</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>22</v>
@@ -2165,7 +2162,7 @@
         <v>162</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>22</v>
@@ -2209,7 +2206,7 @@
         <v>162</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>22</v>
@@ -2271,77 +2268,77 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>37</v>
+      <c r="C18" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="41">
-        <v>44594</v>
+      <c r="J18" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="M18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="69" x14ac:dyDescent="0.25">
+      <c r="O18" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>47</v>
+      <c r="C19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="40">
-        <v>44744</v>
+      <c r="J19" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>49</v>
@@ -2349,14 +2346,14 @@
       <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>52</v>
+      <c r="M19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="55.2" x14ac:dyDescent="0.25">
@@ -2517,7 +2514,7 @@
         <v>162</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>49</v>
@@ -2561,7 +2558,7 @@
         <v>162</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>49</v>
@@ -2580,10 +2577,20 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="3"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
@@ -4605,21 +4612,17 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B5:O24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L9 L18:L19" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$L$20:$L$23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K9 K18:K19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$20:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L7 L10:L17 L20:L24" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L25" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$L$30:$L$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K7 K10:K17 K20:K24" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K7 K12:K25" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$K$30:$K$32</formula1>
     </dataValidation>
   </dataValidations>
